--- a/data/05_input/zm.rn20a2.xlsx
+++ b/data/05_input/zm.rn20a2.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Containers/com.panic.transmit.mas/Data/Library/Caches/Transmit/308516B8-76EC-4417-948B-70182FA51046/login.msi.umn.edu/panfs/roc/groups/15/springer/zhoux379/projects/barn/data/06_local_list_excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Containers/com.panic.transmit.mas/Data/Library/Caches/Transmit/DF9BFD8E-0AA1-4428-8E5F-74F0A34CB82A/login.msi.umn.edu/panfs/roc/groups/15/springer/zhoux379/projects/barn/data/05_input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0058049-9F2C-8F47-98F8-1C296AB05E0D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B15CBF3-AE1B-C14A-8164-8986C78F21EB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17360" yWindow="13740" windowWidth="13900" windowHeight="11260" xr2:uid="{67760308-83C7-244E-9309-67C566F6D356}"/>
+    <workbookView xWindow="6620" yWindow="1800" windowWidth="16060" windowHeight="16480" xr2:uid="{67760308-83C7-244E-9309-67C566F6D356}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029" iterateDelta="1E-4"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1161" uniqueCount="781">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1449" uniqueCount="782">
   <si>
     <t>SampleID</t>
   </si>
@@ -2368,6 +2368,9 @@
   </si>
   <si>
     <t>/scratch.global/zhoux379/stress/data/batch3/demul/H9.fastq.gz</t>
+  </si>
+  <si>
+    <t>PE</t>
   </si>
 </sst>
 </file>
@@ -2773,8 +2776,8 @@
       <c r="E2">
         <v>1</v>
       </c>
-      <c r="F2" t="b">
-        <v>0</v>
+      <c r="F2" t="s">
+        <v>781</v>
       </c>
       <c r="G2" t="s">
         <v>12</v>
@@ -2793,8 +2796,8 @@
       <c r="E3">
         <v>1</v>
       </c>
-      <c r="F3" t="b">
-        <v>0</v>
+      <c r="F3" t="s">
+        <v>781</v>
       </c>
       <c r="G3" t="s">
         <v>15</v>
@@ -2813,8 +2816,8 @@
       <c r="E4">
         <v>1</v>
       </c>
-      <c r="F4" t="b">
-        <v>0</v>
+      <c r="F4" t="s">
+        <v>781</v>
       </c>
       <c r="G4" t="s">
         <v>18</v>
@@ -2833,8 +2836,8 @@
       <c r="E5">
         <v>1</v>
       </c>
-      <c r="F5" t="b">
-        <v>0</v>
+      <c r="F5" t="s">
+        <v>781</v>
       </c>
       <c r="G5" t="s">
         <v>21</v>
@@ -2853,8 +2856,8 @@
       <c r="E6">
         <v>1</v>
       </c>
-      <c r="F6" t="b">
-        <v>0</v>
+      <c r="F6" t="s">
+        <v>781</v>
       </c>
       <c r="G6" t="s">
         <v>24</v>
@@ -2873,8 +2876,8 @@
       <c r="E7">
         <v>1</v>
       </c>
-      <c r="F7" t="b">
-        <v>0</v>
+      <c r="F7" t="s">
+        <v>781</v>
       </c>
       <c r="G7" t="s">
         <v>27</v>
@@ -2893,8 +2896,8 @@
       <c r="E8">
         <v>1</v>
       </c>
-      <c r="F8" t="b">
-        <v>0</v>
+      <c r="F8" t="s">
+        <v>781</v>
       </c>
       <c r="G8" t="s">
         <v>30</v>
@@ -2913,8 +2916,8 @@
       <c r="E9">
         <v>1</v>
       </c>
-      <c r="F9" t="b">
-        <v>0</v>
+      <c r="F9" t="s">
+        <v>781</v>
       </c>
       <c r="G9" t="s">
         <v>33</v>
@@ -2933,8 +2936,8 @@
       <c r="E10">
         <v>1</v>
       </c>
-      <c r="F10" t="b">
-        <v>0</v>
+      <c r="F10" t="s">
+        <v>781</v>
       </c>
       <c r="G10" t="s">
         <v>36</v>
@@ -2953,8 +2956,8 @@
       <c r="E11">
         <v>1</v>
       </c>
-      <c r="F11" t="b">
-        <v>0</v>
+      <c r="F11" t="s">
+        <v>781</v>
       </c>
       <c r="G11" t="s">
         <v>39</v>
@@ -2973,8 +2976,8 @@
       <c r="E12">
         <v>1</v>
       </c>
-      <c r="F12" t="b">
-        <v>0</v>
+      <c r="F12" t="s">
+        <v>781</v>
       </c>
       <c r="G12" t="s">
         <v>42</v>
@@ -2993,8 +2996,8 @@
       <c r="E13">
         <v>1</v>
       </c>
-      <c r="F13" t="b">
-        <v>0</v>
+      <c r="F13" t="s">
+        <v>781</v>
       </c>
       <c r="G13" t="s">
         <v>45</v>
@@ -3013,8 +3016,8 @@
       <c r="E14">
         <v>1</v>
       </c>
-      <c r="F14" t="b">
-        <v>0</v>
+      <c r="F14" t="s">
+        <v>781</v>
       </c>
       <c r="G14" t="s">
         <v>48</v>
@@ -3033,8 +3036,8 @@
       <c r="E15">
         <v>1</v>
       </c>
-      <c r="F15" t="b">
-        <v>0</v>
+      <c r="F15" t="s">
+        <v>781</v>
       </c>
       <c r="G15" t="s">
         <v>51</v>
@@ -3053,8 +3056,8 @@
       <c r="E16">
         <v>1</v>
       </c>
-      <c r="F16" t="b">
-        <v>0</v>
+      <c r="F16" t="s">
+        <v>781</v>
       </c>
       <c r="G16" t="s">
         <v>54</v>
@@ -3073,8 +3076,8 @@
       <c r="E17">
         <v>1</v>
       </c>
-      <c r="F17" t="b">
-        <v>0</v>
+      <c r="F17" t="s">
+        <v>781</v>
       </c>
       <c r="G17" t="s">
         <v>57</v>
@@ -3093,8 +3096,8 @@
       <c r="E18">
         <v>1</v>
       </c>
-      <c r="F18" t="b">
-        <v>0</v>
+      <c r="F18" t="s">
+        <v>781</v>
       </c>
       <c r="G18" t="s">
         <v>60</v>
@@ -3113,8 +3116,8 @@
       <c r="E19">
         <v>1</v>
       </c>
-      <c r="F19" t="b">
-        <v>0</v>
+      <c r="F19" t="s">
+        <v>781</v>
       </c>
       <c r="G19" t="s">
         <v>63</v>
@@ -3133,8 +3136,8 @@
       <c r="E20">
         <v>1</v>
       </c>
-      <c r="F20" t="b">
-        <v>0</v>
+      <c r="F20" t="s">
+        <v>781</v>
       </c>
       <c r="G20" t="s">
         <v>66</v>
@@ -3153,8 +3156,8 @@
       <c r="E21">
         <v>1</v>
       </c>
-      <c r="F21" t="b">
-        <v>0</v>
+      <c r="F21" t="s">
+        <v>781</v>
       </c>
       <c r="G21" t="s">
         <v>69</v>
@@ -3173,8 +3176,8 @@
       <c r="E22">
         <v>1</v>
       </c>
-      <c r="F22" t="b">
-        <v>0</v>
+      <c r="F22" t="s">
+        <v>781</v>
       </c>
       <c r="G22" t="s">
         <v>72</v>
@@ -3193,8 +3196,8 @@
       <c r="E23">
         <v>1</v>
       </c>
-      <c r="F23" t="b">
-        <v>0</v>
+      <c r="F23" t="s">
+        <v>781</v>
       </c>
       <c r="G23" t="s">
         <v>75</v>
@@ -3213,8 +3216,8 @@
       <c r="E24">
         <v>1</v>
       </c>
-      <c r="F24" t="b">
-        <v>0</v>
+      <c r="F24" t="s">
+        <v>781</v>
       </c>
       <c r="G24" t="s">
         <v>78</v>
@@ -3233,8 +3236,8 @@
       <c r="E25">
         <v>1</v>
       </c>
-      <c r="F25" t="b">
-        <v>0</v>
+      <c r="F25" t="s">
+        <v>781</v>
       </c>
       <c r="G25" t="s">
         <v>81</v>
@@ -3253,8 +3256,8 @@
       <c r="E26">
         <v>1</v>
       </c>
-      <c r="F26" t="b">
-        <v>0</v>
+      <c r="F26" t="s">
+        <v>781</v>
       </c>
       <c r="G26" t="s">
         <v>84</v>
@@ -3273,8 +3276,8 @@
       <c r="E27">
         <v>1</v>
       </c>
-      <c r="F27" t="b">
-        <v>0</v>
+      <c r="F27" t="s">
+        <v>781</v>
       </c>
       <c r="G27" t="s">
         <v>87</v>
@@ -3293,8 +3296,8 @@
       <c r="E28">
         <v>1</v>
       </c>
-      <c r="F28" t="b">
-        <v>0</v>
+      <c r="F28" t="s">
+        <v>781</v>
       </c>
       <c r="G28" t="s">
         <v>90</v>
@@ -3313,8 +3316,8 @@
       <c r="E29">
         <v>1</v>
       </c>
-      <c r="F29" t="b">
-        <v>0</v>
+      <c r="F29" t="s">
+        <v>781</v>
       </c>
       <c r="G29" t="s">
         <v>93</v>
@@ -3333,8 +3336,8 @@
       <c r="E30">
         <v>1</v>
       </c>
-      <c r="F30" t="b">
-        <v>0</v>
+      <c r="F30" t="s">
+        <v>781</v>
       </c>
       <c r="G30" t="s">
         <v>96</v>
@@ -3353,8 +3356,8 @@
       <c r="E31">
         <v>1</v>
       </c>
-      <c r="F31" t="b">
-        <v>0</v>
+      <c r="F31" t="s">
+        <v>781</v>
       </c>
       <c r="G31" t="s">
         <v>99</v>
@@ -3373,8 +3376,8 @@
       <c r="E32">
         <v>1</v>
       </c>
-      <c r="F32" t="b">
-        <v>0</v>
+      <c r="F32" t="s">
+        <v>781</v>
       </c>
       <c r="G32" t="s">
         <v>102</v>
@@ -3393,8 +3396,8 @@
       <c r="E33">
         <v>1</v>
       </c>
-      <c r="F33" t="b">
-        <v>0</v>
+      <c r="F33" t="s">
+        <v>781</v>
       </c>
       <c r="G33" t="s">
         <v>105</v>
@@ -3413,8 +3416,8 @@
       <c r="E34">
         <v>1</v>
       </c>
-      <c r="F34" t="b">
-        <v>0</v>
+      <c r="F34" t="s">
+        <v>781</v>
       </c>
       <c r="G34" t="s">
         <v>108</v>
@@ -3433,8 +3436,8 @@
       <c r="E35">
         <v>1</v>
       </c>
-      <c r="F35" t="b">
-        <v>0</v>
+      <c r="F35" t="s">
+        <v>781</v>
       </c>
       <c r="G35" t="s">
         <v>111</v>
@@ -3453,8 +3456,8 @@
       <c r="E36">
         <v>1</v>
       </c>
-      <c r="F36" t="b">
-        <v>0</v>
+      <c r="F36" t="s">
+        <v>781</v>
       </c>
       <c r="G36" t="s">
         <v>114</v>
@@ -3473,8 +3476,8 @@
       <c r="E37">
         <v>1</v>
       </c>
-      <c r="F37" t="b">
-        <v>0</v>
+      <c r="F37" t="s">
+        <v>781</v>
       </c>
       <c r="G37" t="s">
         <v>117</v>
@@ -3493,8 +3496,8 @@
       <c r="E38">
         <v>1</v>
       </c>
-      <c r="F38" t="b">
-        <v>0</v>
+      <c r="F38" t="s">
+        <v>781</v>
       </c>
       <c r="G38" t="s">
         <v>120</v>
@@ -3513,8 +3516,8 @@
       <c r="E39">
         <v>1</v>
       </c>
-      <c r="F39" t="b">
-        <v>0</v>
+      <c r="F39" t="s">
+        <v>781</v>
       </c>
       <c r="G39" t="s">
         <v>123</v>
@@ -3533,8 +3536,8 @@
       <c r="E40">
         <v>1</v>
       </c>
-      <c r="F40" t="b">
-        <v>0</v>
+      <c r="F40" t="s">
+        <v>781</v>
       </c>
       <c r="G40" t="s">
         <v>126</v>
@@ -3553,8 +3556,8 @@
       <c r="E41">
         <v>1</v>
       </c>
-      <c r="F41" t="b">
-        <v>0</v>
+      <c r="F41" t="s">
+        <v>781</v>
       </c>
       <c r="G41" t="s">
         <v>129</v>
@@ -3573,8 +3576,8 @@
       <c r="E42">
         <v>1</v>
       </c>
-      <c r="F42" t="b">
-        <v>0</v>
+      <c r="F42" t="s">
+        <v>781</v>
       </c>
       <c r="G42" t="s">
         <v>132</v>
@@ -3593,8 +3596,8 @@
       <c r="E43">
         <v>1</v>
       </c>
-      <c r="F43" t="b">
-        <v>0</v>
+      <c r="F43" t="s">
+        <v>781</v>
       </c>
       <c r="G43" t="s">
         <v>135</v>
@@ -3613,8 +3616,8 @@
       <c r="E44">
         <v>1</v>
       </c>
-      <c r="F44" t="b">
-        <v>0</v>
+      <c r="F44" t="s">
+        <v>781</v>
       </c>
       <c r="G44" t="s">
         <v>138</v>
@@ -3633,8 +3636,8 @@
       <c r="E45">
         <v>1</v>
       </c>
-      <c r="F45" t="b">
-        <v>0</v>
+      <c r="F45" t="s">
+        <v>781</v>
       </c>
       <c r="G45" t="s">
         <v>141</v>
@@ -3653,8 +3656,8 @@
       <c r="E46">
         <v>1</v>
       </c>
-      <c r="F46" t="b">
-        <v>0</v>
+      <c r="F46" t="s">
+        <v>781</v>
       </c>
       <c r="G46" t="s">
         <v>144</v>
@@ -3673,8 +3676,8 @@
       <c r="E47">
         <v>1</v>
       </c>
-      <c r="F47" t="b">
-        <v>0</v>
+      <c r="F47" t="s">
+        <v>781</v>
       </c>
       <c r="G47" t="s">
         <v>147</v>
@@ -3693,8 +3696,8 @@
       <c r="E48">
         <v>1</v>
       </c>
-      <c r="F48" t="b">
-        <v>0</v>
+      <c r="F48" t="s">
+        <v>781</v>
       </c>
       <c r="G48" t="s">
         <v>150</v>
@@ -3713,8 +3716,8 @@
       <c r="E49">
         <v>1</v>
       </c>
-      <c r="F49" t="b">
-        <v>0</v>
+      <c r="F49" t="s">
+        <v>781</v>
       </c>
       <c r="G49" t="s">
         <v>153</v>
@@ -3733,8 +3736,8 @@
       <c r="E50">
         <v>1</v>
       </c>
-      <c r="F50" t="b">
-        <v>0</v>
+      <c r="F50" t="s">
+        <v>781</v>
       </c>
       <c r="G50" t="s">
         <v>156</v>
@@ -3753,8 +3756,8 @@
       <c r="E51">
         <v>1</v>
       </c>
-      <c r="F51" t="b">
-        <v>0</v>
+      <c r="F51" t="s">
+        <v>781</v>
       </c>
       <c r="G51" t="s">
         <v>159</v>
@@ -3773,8 +3776,8 @@
       <c r="E52">
         <v>1</v>
       </c>
-      <c r="F52" t="b">
-        <v>0</v>
+      <c r="F52" t="s">
+        <v>781</v>
       </c>
       <c r="G52" t="s">
         <v>162</v>
@@ -3793,8 +3796,8 @@
       <c r="E53">
         <v>1</v>
       </c>
-      <c r="F53" t="b">
-        <v>0</v>
+      <c r="F53" t="s">
+        <v>781</v>
       </c>
       <c r="G53" t="s">
         <v>165</v>
@@ -3813,8 +3816,8 @@
       <c r="E54">
         <v>1</v>
       </c>
-      <c r="F54" t="b">
-        <v>0</v>
+      <c r="F54" t="s">
+        <v>781</v>
       </c>
       <c r="G54" t="s">
         <v>168</v>
@@ -3833,8 +3836,8 @@
       <c r="E55">
         <v>1</v>
       </c>
-      <c r="F55" t="b">
-        <v>0</v>
+      <c r="F55" t="s">
+        <v>781</v>
       </c>
       <c r="G55" t="s">
         <v>171</v>
@@ -3853,8 +3856,8 @@
       <c r="E56">
         <v>1</v>
       </c>
-      <c r="F56" t="b">
-        <v>0</v>
+      <c r="F56" t="s">
+        <v>781</v>
       </c>
       <c r="G56" t="s">
         <v>174</v>
@@ -3873,8 +3876,8 @@
       <c r="E57">
         <v>1</v>
       </c>
-      <c r="F57" t="b">
-        <v>0</v>
+      <c r="F57" t="s">
+        <v>781</v>
       </c>
       <c r="G57" t="s">
         <v>177</v>
@@ -3893,8 +3896,8 @@
       <c r="E58">
         <v>1</v>
       </c>
-      <c r="F58" t="b">
-        <v>0</v>
+      <c r="F58" t="s">
+        <v>781</v>
       </c>
       <c r="G58" t="s">
         <v>180</v>
@@ -3913,8 +3916,8 @@
       <c r="E59">
         <v>1</v>
       </c>
-      <c r="F59" t="b">
-        <v>0</v>
+      <c r="F59" t="s">
+        <v>781</v>
       </c>
       <c r="G59" t="s">
         <v>183</v>
@@ -3933,8 +3936,8 @@
       <c r="E60">
         <v>1</v>
       </c>
-      <c r="F60" t="b">
-        <v>0</v>
+      <c r="F60" t="s">
+        <v>781</v>
       </c>
       <c r="G60" t="s">
         <v>186</v>
@@ -3953,8 +3956,8 @@
       <c r="E61">
         <v>1</v>
       </c>
-      <c r="F61" t="b">
-        <v>0</v>
+      <c r="F61" t="s">
+        <v>781</v>
       </c>
       <c r="G61" t="s">
         <v>189</v>
@@ -3973,8 +3976,8 @@
       <c r="E62">
         <v>1</v>
       </c>
-      <c r="F62" t="b">
-        <v>0</v>
+      <c r="F62" t="s">
+        <v>781</v>
       </c>
       <c r="G62" t="s">
         <v>192</v>
@@ -3993,8 +3996,8 @@
       <c r="E63">
         <v>1</v>
       </c>
-      <c r="F63" t="b">
-        <v>0</v>
+      <c r="F63" t="s">
+        <v>781</v>
       </c>
       <c r="G63" t="s">
         <v>195</v>
@@ -4013,8 +4016,8 @@
       <c r="E64">
         <v>1</v>
       </c>
-      <c r="F64" t="b">
-        <v>0</v>
+      <c r="F64" t="s">
+        <v>781</v>
       </c>
       <c r="G64" t="s">
         <v>198</v>
@@ -4033,8 +4036,8 @@
       <c r="E65">
         <v>1</v>
       </c>
-      <c r="F65" t="b">
-        <v>0</v>
+      <c r="F65" t="s">
+        <v>781</v>
       </c>
       <c r="G65" t="s">
         <v>201</v>
@@ -4053,8 +4056,8 @@
       <c r="E66">
         <v>1</v>
       </c>
-      <c r="F66" t="b">
-        <v>0</v>
+      <c r="F66" t="s">
+        <v>781</v>
       </c>
       <c r="G66" t="s">
         <v>204</v>
@@ -4073,8 +4076,8 @@
       <c r="E67">
         <v>1</v>
       </c>
-      <c r="F67" t="b">
-        <v>0</v>
+      <c r="F67" t="s">
+        <v>781</v>
       </c>
       <c r="G67" t="s">
         <v>207</v>
@@ -4093,8 +4096,8 @@
       <c r="E68">
         <v>1</v>
       </c>
-      <c r="F68" t="b">
-        <v>0</v>
+      <c r="F68" t="s">
+        <v>781</v>
       </c>
       <c r="G68" t="s">
         <v>211</v>
@@ -4113,8 +4116,8 @@
       <c r="E69">
         <v>1</v>
       </c>
-      <c r="F69" t="b">
-        <v>0</v>
+      <c r="F69" t="s">
+        <v>781</v>
       </c>
       <c r="G69" t="s">
         <v>214</v>
@@ -4133,8 +4136,8 @@
       <c r="E70">
         <v>1</v>
       </c>
-      <c r="F70" t="b">
-        <v>0</v>
+      <c r="F70" t="s">
+        <v>781</v>
       </c>
       <c r="G70" t="s">
         <v>217</v>
@@ -4153,8 +4156,8 @@
       <c r="E71">
         <v>1</v>
       </c>
-      <c r="F71" t="b">
-        <v>0</v>
+      <c r="F71" t="s">
+        <v>781</v>
       </c>
       <c r="G71" t="s">
         <v>220</v>
@@ -4173,8 +4176,8 @@
       <c r="E72">
         <v>1</v>
       </c>
-      <c r="F72" t="b">
-        <v>0</v>
+      <c r="F72" t="s">
+        <v>781</v>
       </c>
       <c r="G72" t="s">
         <v>223</v>
@@ -4193,8 +4196,8 @@
       <c r="E73">
         <v>1</v>
       </c>
-      <c r="F73" t="b">
-        <v>0</v>
+      <c r="F73" t="s">
+        <v>781</v>
       </c>
       <c r="G73" t="s">
         <v>226</v>
@@ -4213,8 +4216,8 @@
       <c r="E74">
         <v>1</v>
       </c>
-      <c r="F74" t="b">
-        <v>0</v>
+      <c r="F74" t="s">
+        <v>781</v>
       </c>
       <c r="G74" t="s">
         <v>229</v>
@@ -4233,8 +4236,8 @@
       <c r="E75">
         <v>1</v>
       </c>
-      <c r="F75" t="b">
-        <v>0</v>
+      <c r="F75" t="s">
+        <v>781</v>
       </c>
       <c r="G75" t="s">
         <v>232</v>
@@ -4253,8 +4256,8 @@
       <c r="E76">
         <v>1</v>
       </c>
-      <c r="F76" t="b">
-        <v>0</v>
+      <c r="F76" t="s">
+        <v>781</v>
       </c>
       <c r="G76" t="s">
         <v>235</v>
@@ -4273,8 +4276,8 @@
       <c r="E77">
         <v>1</v>
       </c>
-      <c r="F77" t="b">
-        <v>0</v>
+      <c r="F77" t="s">
+        <v>781</v>
       </c>
       <c r="G77" t="s">
         <v>238</v>
@@ -4293,8 +4296,8 @@
       <c r="E78">
         <v>1</v>
       </c>
-      <c r="F78" t="b">
-        <v>0</v>
+      <c r="F78" t="s">
+        <v>781</v>
       </c>
       <c r="G78" t="s">
         <v>241</v>
@@ -4313,8 +4316,8 @@
       <c r="E79">
         <v>1</v>
       </c>
-      <c r="F79" t="b">
-        <v>0</v>
+      <c r="F79" t="s">
+        <v>781</v>
       </c>
       <c r="G79" t="s">
         <v>244</v>
@@ -4333,8 +4336,8 @@
       <c r="E80">
         <v>1</v>
       </c>
-      <c r="F80" t="b">
-        <v>0</v>
+      <c r="F80" t="s">
+        <v>781</v>
       </c>
       <c r="G80" t="s">
         <v>247</v>
@@ -4353,8 +4356,8 @@
       <c r="E81">
         <v>1</v>
       </c>
-      <c r="F81" t="b">
-        <v>0</v>
+      <c r="F81" t="s">
+        <v>781</v>
       </c>
       <c r="G81" t="s">
         <v>250</v>
@@ -4373,8 +4376,8 @@
       <c r="E82">
         <v>1</v>
       </c>
-      <c r="F82" t="b">
-        <v>0</v>
+      <c r="F82" t="s">
+        <v>781</v>
       </c>
       <c r="G82" t="s">
         <v>253</v>
@@ -4393,8 +4396,8 @@
       <c r="E83">
         <v>1</v>
       </c>
-      <c r="F83" t="b">
-        <v>0</v>
+      <c r="F83" t="s">
+        <v>781</v>
       </c>
       <c r="G83" t="s">
         <v>256</v>
@@ -4413,8 +4416,8 @@
       <c r="E84">
         <v>1</v>
       </c>
-      <c r="F84" t="b">
-        <v>0</v>
+      <c r="F84" t="s">
+        <v>781</v>
       </c>
       <c r="G84" t="s">
         <v>259</v>
@@ -4433,8 +4436,8 @@
       <c r="E85">
         <v>1</v>
       </c>
-      <c r="F85" t="b">
-        <v>0</v>
+      <c r="F85" t="s">
+        <v>781</v>
       </c>
       <c r="G85" t="s">
         <v>262</v>
@@ -4453,8 +4456,8 @@
       <c r="E86">
         <v>1</v>
       </c>
-      <c r="F86" t="b">
-        <v>0</v>
+      <c r="F86" t="s">
+        <v>781</v>
       </c>
       <c r="G86" t="s">
         <v>265</v>
@@ -4473,8 +4476,8 @@
       <c r="E87">
         <v>1</v>
       </c>
-      <c r="F87" t="b">
-        <v>0</v>
+      <c r="F87" t="s">
+        <v>781</v>
       </c>
       <c r="G87" t="s">
         <v>268</v>
@@ -4493,8 +4496,8 @@
       <c r="E88">
         <v>1</v>
       </c>
-      <c r="F88" t="b">
-        <v>0</v>
+      <c r="F88" t="s">
+        <v>781</v>
       </c>
       <c r="G88" t="s">
         <v>271</v>
@@ -4513,8 +4516,8 @@
       <c r="E89">
         <v>1</v>
       </c>
-      <c r="F89" t="b">
-        <v>0</v>
+      <c r="F89" t="s">
+        <v>781</v>
       </c>
       <c r="G89" t="s">
         <v>274</v>
@@ -4533,8 +4536,8 @@
       <c r="E90">
         <v>1</v>
       </c>
-      <c r="F90" t="b">
-        <v>0</v>
+      <c r="F90" t="s">
+        <v>781</v>
       </c>
       <c r="G90" t="s">
         <v>277</v>
@@ -4553,8 +4556,8 @@
       <c r="E91">
         <v>1</v>
       </c>
-      <c r="F91" t="b">
-        <v>0</v>
+      <c r="F91" t="s">
+        <v>781</v>
       </c>
       <c r="G91" t="s">
         <v>280</v>
@@ -4573,8 +4576,8 @@
       <c r="E92">
         <v>1</v>
       </c>
-      <c r="F92" t="b">
-        <v>0</v>
+      <c r="F92" t="s">
+        <v>781</v>
       </c>
       <c r="G92" t="s">
         <v>283</v>
@@ -4593,8 +4596,8 @@
       <c r="E93">
         <v>1</v>
       </c>
-      <c r="F93" t="b">
-        <v>0</v>
+      <c r="F93" t="s">
+        <v>781</v>
       </c>
       <c r="G93" t="s">
         <v>286</v>
@@ -4613,8 +4616,8 @@
       <c r="E94">
         <v>1</v>
       </c>
-      <c r="F94" t="b">
-        <v>0</v>
+      <c r="F94" t="s">
+        <v>781</v>
       </c>
       <c r="G94" t="s">
         <v>289</v>
@@ -4633,8 +4636,8 @@
       <c r="E95">
         <v>1</v>
       </c>
-      <c r="F95" t="b">
-        <v>0</v>
+      <c r="F95" t="s">
+        <v>781</v>
       </c>
       <c r="G95" t="s">
         <v>292</v>
@@ -4653,8 +4656,8 @@
       <c r="E96">
         <v>1</v>
       </c>
-      <c r="F96" t="b">
-        <v>0</v>
+      <c r="F96" t="s">
+        <v>781</v>
       </c>
       <c r="G96" t="s">
         <v>295</v>
@@ -4673,8 +4676,8 @@
       <c r="E97">
         <v>1</v>
       </c>
-      <c r="F97" t="b">
-        <v>0</v>
+      <c r="F97" t="s">
+        <v>781</v>
       </c>
       <c r="G97" t="s">
         <v>298</v>
@@ -4693,8 +4696,8 @@
       <c r="E98">
         <v>1</v>
       </c>
-      <c r="F98" t="b">
-        <v>0</v>
+      <c r="F98" t="s">
+        <v>781</v>
       </c>
       <c r="G98" t="s">
         <v>301</v>
@@ -4713,8 +4716,8 @@
       <c r="E99">
         <v>1</v>
       </c>
-      <c r="F99" t="b">
-        <v>0</v>
+      <c r="F99" t="s">
+        <v>781</v>
       </c>
       <c r="G99" t="s">
         <v>304</v>
@@ -4733,8 +4736,8 @@
       <c r="E100">
         <v>1</v>
       </c>
-      <c r="F100" t="b">
-        <v>0</v>
+      <c r="F100" t="s">
+        <v>781</v>
       </c>
       <c r="G100" t="s">
         <v>307</v>
@@ -4753,8 +4756,8 @@
       <c r="E101">
         <v>1</v>
       </c>
-      <c r="F101" t="b">
-        <v>0</v>
+      <c r="F101" t="s">
+        <v>781</v>
       </c>
       <c r="G101" t="s">
         <v>310</v>
@@ -4773,8 +4776,8 @@
       <c r="E102">
         <v>1</v>
       </c>
-      <c r="F102" t="b">
-        <v>0</v>
+      <c r="F102" t="s">
+        <v>781</v>
       </c>
       <c r="G102" t="s">
         <v>313</v>
@@ -4793,8 +4796,8 @@
       <c r="E103">
         <v>1</v>
       </c>
-      <c r="F103" t="b">
-        <v>0</v>
+      <c r="F103" t="s">
+        <v>781</v>
       </c>
       <c r="G103" t="s">
         <v>316</v>
@@ -4813,8 +4816,8 @@
       <c r="E104">
         <v>1</v>
       </c>
-      <c r="F104" t="b">
-        <v>0</v>
+      <c r="F104" t="s">
+        <v>781</v>
       </c>
       <c r="G104" t="s">
         <v>319</v>
@@ -4833,8 +4836,8 @@
       <c r="E105">
         <v>1</v>
       </c>
-      <c r="F105" t="b">
-        <v>0</v>
+      <c r="F105" t="s">
+        <v>781</v>
       </c>
       <c r="G105" t="s">
         <v>322</v>
@@ -4853,8 +4856,8 @@
       <c r="E106">
         <v>1</v>
       </c>
-      <c r="F106" t="b">
-        <v>0</v>
+      <c r="F106" t="s">
+        <v>781</v>
       </c>
       <c r="G106" t="s">
         <v>325</v>
@@ -4873,8 +4876,8 @@
       <c r="E107">
         <v>1</v>
       </c>
-      <c r="F107" t="b">
-        <v>0</v>
+      <c r="F107" t="s">
+        <v>781</v>
       </c>
       <c r="G107" t="s">
         <v>328</v>
@@ -4893,8 +4896,8 @@
       <c r="E108">
         <v>1</v>
       </c>
-      <c r="F108" t="b">
-        <v>0</v>
+      <c r="F108" t="s">
+        <v>781</v>
       </c>
       <c r="G108" t="s">
         <v>331</v>
@@ -4913,8 +4916,8 @@
       <c r="E109">
         <v>1</v>
       </c>
-      <c r="F109" t="b">
-        <v>0</v>
+      <c r="F109" t="s">
+        <v>781</v>
       </c>
       <c r="G109" t="s">
         <v>334</v>
@@ -4933,8 +4936,8 @@
       <c r="E110">
         <v>1</v>
       </c>
-      <c r="F110" t="b">
-        <v>0</v>
+      <c r="F110" t="s">
+        <v>781</v>
       </c>
       <c r="G110" t="s">
         <v>337</v>
@@ -4953,8 +4956,8 @@
       <c r="E111">
         <v>1</v>
       </c>
-      <c r="F111" t="b">
-        <v>0</v>
+      <c r="F111" t="s">
+        <v>781</v>
       </c>
       <c r="G111" t="s">
         <v>340</v>
@@ -4973,8 +4976,8 @@
       <c r="E112">
         <v>1</v>
       </c>
-      <c r="F112" t="b">
-        <v>0</v>
+      <c r="F112" t="s">
+        <v>781</v>
       </c>
       <c r="G112" t="s">
         <v>343</v>
@@ -4993,8 +4996,8 @@
       <c r="E113">
         <v>1</v>
       </c>
-      <c r="F113" t="b">
-        <v>0</v>
+      <c r="F113" t="s">
+        <v>781</v>
       </c>
       <c r="G113" t="s">
         <v>346</v>
@@ -5013,8 +5016,8 @@
       <c r="E114">
         <v>1</v>
       </c>
-      <c r="F114" t="b">
-        <v>0</v>
+      <c r="F114" t="s">
+        <v>781</v>
       </c>
       <c r="G114" t="s">
         <v>349</v>
@@ -5033,8 +5036,8 @@
       <c r="E115">
         <v>1</v>
       </c>
-      <c r="F115" t="b">
-        <v>0</v>
+      <c r="F115" t="s">
+        <v>781</v>
       </c>
       <c r="G115" t="s">
         <v>352</v>
@@ -5053,8 +5056,8 @@
       <c r="E116">
         <v>1</v>
       </c>
-      <c r="F116" t="b">
-        <v>0</v>
+      <c r="F116" t="s">
+        <v>781</v>
       </c>
       <c r="G116" t="s">
         <v>355</v>
@@ -5073,8 +5076,8 @@
       <c r="E117">
         <v>1</v>
       </c>
-      <c r="F117" t="b">
-        <v>0</v>
+      <c r="F117" t="s">
+        <v>781</v>
       </c>
       <c r="G117" t="s">
         <v>358</v>
@@ -5093,8 +5096,8 @@
       <c r="E118">
         <v>1</v>
       </c>
-      <c r="F118" t="b">
-        <v>0</v>
+      <c r="F118" t="s">
+        <v>781</v>
       </c>
       <c r="G118" t="s">
         <v>361</v>
@@ -5113,8 +5116,8 @@
       <c r="E119">
         <v>1</v>
       </c>
-      <c r="F119" t="b">
-        <v>0</v>
+      <c r="F119" t="s">
+        <v>781</v>
       </c>
       <c r="G119" t="s">
         <v>364</v>
@@ -5133,8 +5136,8 @@
       <c r="E120">
         <v>1</v>
       </c>
-      <c r="F120" t="b">
-        <v>0</v>
+      <c r="F120" t="s">
+        <v>781</v>
       </c>
       <c r="G120" t="s">
         <v>367</v>
@@ -5153,8 +5156,8 @@
       <c r="E121">
         <v>1</v>
       </c>
-      <c r="F121" t="b">
-        <v>0</v>
+      <c r="F121" t="s">
+        <v>781</v>
       </c>
       <c r="G121" t="s">
         <v>370</v>
@@ -5173,8 +5176,8 @@
       <c r="E122">
         <v>1</v>
       </c>
-      <c r="F122" t="b">
-        <v>0</v>
+      <c r="F122" t="s">
+        <v>781</v>
       </c>
       <c r="G122" t="s">
         <v>373</v>
@@ -5193,8 +5196,8 @@
       <c r="E123">
         <v>1</v>
       </c>
-      <c r="F123" t="b">
-        <v>0</v>
+      <c r="F123" t="s">
+        <v>781</v>
       </c>
       <c r="G123" t="s">
         <v>376</v>
@@ -5213,8 +5216,8 @@
       <c r="E124">
         <v>1</v>
       </c>
-      <c r="F124" t="b">
-        <v>0</v>
+      <c r="F124" t="s">
+        <v>781</v>
       </c>
       <c r="G124" t="s">
         <v>379</v>
@@ -5233,8 +5236,8 @@
       <c r="E125">
         <v>1</v>
       </c>
-      <c r="F125" t="b">
-        <v>0</v>
+      <c r="F125" t="s">
+        <v>781</v>
       </c>
       <c r="G125" t="s">
         <v>382</v>
@@ -5253,8 +5256,8 @@
       <c r="E126">
         <v>1</v>
       </c>
-      <c r="F126" t="b">
-        <v>0</v>
+      <c r="F126" t="s">
+        <v>781</v>
       </c>
       <c r="G126" t="s">
         <v>385</v>
@@ -5273,8 +5276,8 @@
       <c r="E127">
         <v>1</v>
       </c>
-      <c r="F127" t="b">
-        <v>0</v>
+      <c r="F127" t="s">
+        <v>781</v>
       </c>
       <c r="G127" t="s">
         <v>388</v>
@@ -5293,8 +5296,8 @@
       <c r="E128">
         <v>1</v>
       </c>
-      <c r="F128" t="b">
-        <v>0</v>
+      <c r="F128" t="s">
+        <v>781</v>
       </c>
       <c r="G128" t="s">
         <v>391</v>
@@ -5313,8 +5316,8 @@
       <c r="E129">
         <v>1</v>
       </c>
-      <c r="F129" t="b">
-        <v>0</v>
+      <c r="F129" t="s">
+        <v>781</v>
       </c>
       <c r="G129" t="s">
         <v>394</v>
@@ -5333,8 +5336,8 @@
       <c r="E130">
         <v>1</v>
       </c>
-      <c r="F130" t="b">
-        <v>0</v>
+      <c r="F130" t="s">
+        <v>781</v>
       </c>
       <c r="G130" t="s">
         <v>397</v>
@@ -5353,8 +5356,8 @@
       <c r="E131">
         <v>1</v>
       </c>
-      <c r="F131" t="b">
-        <v>0</v>
+      <c r="F131" t="s">
+        <v>781</v>
       </c>
       <c r="G131" t="s">
         <v>400</v>
@@ -5373,8 +5376,8 @@
       <c r="E132">
         <v>1</v>
       </c>
-      <c r="F132" t="b">
-        <v>0</v>
+      <c r="F132" t="s">
+        <v>781</v>
       </c>
       <c r="G132" t="s">
         <v>404</v>
@@ -5393,8 +5396,8 @@
       <c r="E133">
         <v>1</v>
       </c>
-      <c r="F133" t="b">
-        <v>0</v>
+      <c r="F133" t="s">
+        <v>781</v>
       </c>
       <c r="G133" t="s">
         <v>407</v>
@@ -5413,8 +5416,8 @@
       <c r="E134">
         <v>1</v>
       </c>
-      <c r="F134" t="b">
-        <v>0</v>
+      <c r="F134" t="s">
+        <v>781</v>
       </c>
       <c r="G134" t="s">
         <v>410</v>
@@ -5433,8 +5436,8 @@
       <c r="E135">
         <v>1</v>
       </c>
-      <c r="F135" t="b">
-        <v>0</v>
+      <c r="F135" t="s">
+        <v>781</v>
       </c>
       <c r="G135" t="s">
         <v>413</v>
@@ -5453,8 +5456,8 @@
       <c r="E136">
         <v>1</v>
       </c>
-      <c r="F136" t="b">
-        <v>0</v>
+      <c r="F136" t="s">
+        <v>781</v>
       </c>
       <c r="G136" t="s">
         <v>416</v>
@@ -5473,8 +5476,8 @@
       <c r="E137">
         <v>1</v>
       </c>
-      <c r="F137" t="b">
-        <v>0</v>
+      <c r="F137" t="s">
+        <v>781</v>
       </c>
       <c r="G137" t="s">
         <v>419</v>
@@ -5493,8 +5496,8 @@
       <c r="E138">
         <v>1</v>
       </c>
-      <c r="F138" t="b">
-        <v>0</v>
+      <c r="F138" t="s">
+        <v>781</v>
       </c>
       <c r="G138" t="s">
         <v>422</v>
@@ -5513,8 +5516,8 @@
       <c r="E139">
         <v>1</v>
       </c>
-      <c r="F139" t="b">
-        <v>0</v>
+      <c r="F139" t="s">
+        <v>781</v>
       </c>
       <c r="G139" t="s">
         <v>425</v>
@@ -5533,8 +5536,8 @@
       <c r="E140">
         <v>1</v>
       </c>
-      <c r="F140" t="b">
-        <v>0</v>
+      <c r="F140" t="s">
+        <v>781</v>
       </c>
       <c r="G140" t="s">
         <v>428</v>
@@ -5553,8 +5556,8 @@
       <c r="E141">
         <v>1</v>
       </c>
-      <c r="F141" t="b">
-        <v>0</v>
+      <c r="F141" t="s">
+        <v>781</v>
       </c>
       <c r="G141" t="s">
         <v>431</v>
@@ -5573,8 +5576,8 @@
       <c r="E142">
         <v>1</v>
       </c>
-      <c r="F142" t="b">
-        <v>0</v>
+      <c r="F142" t="s">
+        <v>781</v>
       </c>
       <c r="G142" t="s">
         <v>434</v>
@@ -5593,8 +5596,8 @@
       <c r="E143">
         <v>1</v>
       </c>
-      <c r="F143" t="b">
-        <v>0</v>
+      <c r="F143" t="s">
+        <v>781</v>
       </c>
       <c r="G143" t="s">
         <v>437</v>
@@ -5613,8 +5616,8 @@
       <c r="E144">
         <v>1</v>
       </c>
-      <c r="F144" t="b">
-        <v>0</v>
+      <c r="F144" t="s">
+        <v>781</v>
       </c>
       <c r="G144" t="s">
         <v>440</v>
@@ -5633,8 +5636,8 @@
       <c r="E145">
         <v>1</v>
       </c>
-      <c r="F145" t="b">
-        <v>0</v>
+      <c r="F145" t="s">
+        <v>781</v>
       </c>
       <c r="G145" t="s">
         <v>443</v>
@@ -5653,8 +5656,8 @@
       <c r="E146">
         <v>1</v>
       </c>
-      <c r="F146" t="b">
-        <v>0</v>
+      <c r="F146" t="s">
+        <v>781</v>
       </c>
       <c r="G146" t="s">
         <v>446</v>
@@ -5673,8 +5676,8 @@
       <c r="E147">
         <v>1</v>
       </c>
-      <c r="F147" t="b">
-        <v>0</v>
+      <c r="F147" t="s">
+        <v>781</v>
       </c>
       <c r="G147" t="s">
         <v>449</v>
@@ -5693,8 +5696,8 @@
       <c r="E148">
         <v>1</v>
       </c>
-      <c r="F148" t="b">
-        <v>0</v>
+      <c r="F148" t="s">
+        <v>781</v>
       </c>
       <c r="G148" t="s">
         <v>452</v>
@@ -5713,8 +5716,8 @@
       <c r="E149">
         <v>1</v>
       </c>
-      <c r="F149" t="b">
-        <v>0</v>
+      <c r="F149" t="s">
+        <v>781</v>
       </c>
       <c r="G149" t="s">
         <v>455</v>
@@ -5733,8 +5736,8 @@
       <c r="E150">
         <v>1</v>
       </c>
-      <c r="F150" t="b">
-        <v>0</v>
+      <c r="F150" t="s">
+        <v>781</v>
       </c>
       <c r="G150" t="s">
         <v>458</v>
@@ -5753,8 +5756,8 @@
       <c r="E151">
         <v>1</v>
       </c>
-      <c r="F151" t="b">
-        <v>0</v>
+      <c r="F151" t="s">
+        <v>781</v>
       </c>
       <c r="G151" t="s">
         <v>461</v>
@@ -5773,8 +5776,8 @@
       <c r="E152">
         <v>1</v>
       </c>
-      <c r="F152" t="b">
-        <v>0</v>
+      <c r="F152" t="s">
+        <v>781</v>
       </c>
       <c r="G152" t="s">
         <v>464</v>
@@ -5793,8 +5796,8 @@
       <c r="E153">
         <v>1</v>
       </c>
-      <c r="F153" t="b">
-        <v>0</v>
+      <c r="F153" t="s">
+        <v>781</v>
       </c>
       <c r="G153" t="s">
         <v>467</v>
@@ -5813,8 +5816,8 @@
       <c r="E154">
         <v>1</v>
       </c>
-      <c r="F154" t="b">
-        <v>0</v>
+      <c r="F154" t="s">
+        <v>781</v>
       </c>
       <c r="G154" t="s">
         <v>470</v>
@@ -5833,8 +5836,8 @@
       <c r="E155">
         <v>1</v>
       </c>
-      <c r="F155" t="b">
-        <v>0</v>
+      <c r="F155" t="s">
+        <v>781</v>
       </c>
       <c r="G155" t="s">
         <v>473</v>
@@ -5853,8 +5856,8 @@
       <c r="E156">
         <v>1</v>
       </c>
-      <c r="F156" t="b">
-        <v>0</v>
+      <c r="F156" t="s">
+        <v>781</v>
       </c>
       <c r="G156" t="s">
         <v>476</v>
@@ -5873,8 +5876,8 @@
       <c r="E157">
         <v>1</v>
       </c>
-      <c r="F157" t="b">
-        <v>0</v>
+      <c r="F157" t="s">
+        <v>781</v>
       </c>
       <c r="G157" t="s">
         <v>479</v>
@@ -5893,8 +5896,8 @@
       <c r="E158">
         <v>1</v>
       </c>
-      <c r="F158" t="b">
-        <v>0</v>
+      <c r="F158" t="s">
+        <v>781</v>
       </c>
       <c r="G158" t="s">
         <v>482</v>
@@ -5913,8 +5916,8 @@
       <c r="E159">
         <v>1</v>
       </c>
-      <c r="F159" t="b">
-        <v>0</v>
+      <c r="F159" t="s">
+        <v>781</v>
       </c>
       <c r="G159" t="s">
         <v>485</v>
@@ -5933,8 +5936,8 @@
       <c r="E160">
         <v>1</v>
       </c>
-      <c r="F160" t="b">
-        <v>0</v>
+      <c r="F160" t="s">
+        <v>781</v>
       </c>
       <c r="G160" t="s">
         <v>488</v>
@@ -5953,8 +5956,8 @@
       <c r="E161">
         <v>1</v>
       </c>
-      <c r="F161" t="b">
-        <v>0</v>
+      <c r="F161" t="s">
+        <v>781</v>
       </c>
       <c r="G161" t="s">
         <v>491</v>
@@ -5973,8 +5976,8 @@
       <c r="E162">
         <v>1</v>
       </c>
-      <c r="F162" t="b">
-        <v>0</v>
+      <c r="F162" t="s">
+        <v>781</v>
       </c>
       <c r="G162" t="s">
         <v>494</v>
@@ -5993,8 +5996,8 @@
       <c r="E163">
         <v>1</v>
       </c>
-      <c r="F163" t="b">
-        <v>0</v>
+      <c r="F163" t="s">
+        <v>781</v>
       </c>
       <c r="G163" t="s">
         <v>497</v>
@@ -6013,8 +6016,8 @@
       <c r="E164">
         <v>1</v>
       </c>
-      <c r="F164" t="b">
-        <v>0</v>
+      <c r="F164" t="s">
+        <v>781</v>
       </c>
       <c r="G164" t="s">
         <v>500</v>
@@ -6033,8 +6036,8 @@
       <c r="E165">
         <v>1</v>
       </c>
-      <c r="F165" t="b">
-        <v>0</v>
+      <c r="F165" t="s">
+        <v>781</v>
       </c>
       <c r="G165" t="s">
         <v>503</v>
@@ -6053,8 +6056,8 @@
       <c r="E166">
         <v>1</v>
       </c>
-      <c r="F166" t="b">
-        <v>0</v>
+      <c r="F166" t="s">
+        <v>781</v>
       </c>
       <c r="G166" t="s">
         <v>506</v>
@@ -6073,8 +6076,8 @@
       <c r="E167">
         <v>1</v>
       </c>
-      <c r="F167" t="b">
-        <v>0</v>
+      <c r="F167" t="s">
+        <v>781</v>
       </c>
       <c r="G167" t="s">
         <v>509</v>
@@ -6093,8 +6096,8 @@
       <c r="E168">
         <v>1</v>
       </c>
-      <c r="F168" t="b">
-        <v>0</v>
+      <c r="F168" t="s">
+        <v>781</v>
       </c>
       <c r="G168" t="s">
         <v>512</v>
@@ -6113,8 +6116,8 @@
       <c r="E169">
         <v>1</v>
       </c>
-      <c r="F169" t="b">
-        <v>0</v>
+      <c r="F169" t="s">
+        <v>781</v>
       </c>
       <c r="G169" t="s">
         <v>515</v>
@@ -6133,8 +6136,8 @@
       <c r="E170">
         <v>1</v>
       </c>
-      <c r="F170" t="b">
-        <v>0</v>
+      <c r="F170" t="s">
+        <v>781</v>
       </c>
       <c r="G170" t="s">
         <v>518</v>
@@ -6153,8 +6156,8 @@
       <c r="E171">
         <v>1</v>
       </c>
-      <c r="F171" t="b">
-        <v>0</v>
+      <c r="F171" t="s">
+        <v>781</v>
       </c>
       <c r="G171" t="s">
         <v>521</v>
@@ -6173,8 +6176,8 @@
       <c r="E172">
         <v>1</v>
       </c>
-      <c r="F172" t="b">
-        <v>0</v>
+      <c r="F172" t="s">
+        <v>781</v>
       </c>
       <c r="G172" t="s">
         <v>524</v>
@@ -6193,8 +6196,8 @@
       <c r="E173">
         <v>1</v>
       </c>
-      <c r="F173" t="b">
-        <v>0</v>
+      <c r="F173" t="s">
+        <v>781</v>
       </c>
       <c r="G173" t="s">
         <v>527</v>
@@ -6213,8 +6216,8 @@
       <c r="E174">
         <v>1</v>
       </c>
-      <c r="F174" t="b">
-        <v>0</v>
+      <c r="F174" t="s">
+        <v>781</v>
       </c>
       <c r="G174" t="s">
         <v>530</v>
@@ -6233,8 +6236,8 @@
       <c r="E175">
         <v>1</v>
       </c>
-      <c r="F175" t="b">
-        <v>0</v>
+      <c r="F175" t="s">
+        <v>781</v>
       </c>
       <c r="G175" t="s">
         <v>533</v>
@@ -6253,8 +6256,8 @@
       <c r="E176">
         <v>1</v>
       </c>
-      <c r="F176" t="b">
-        <v>0</v>
+      <c r="F176" t="s">
+        <v>781</v>
       </c>
       <c r="G176" t="s">
         <v>536</v>
@@ -6273,8 +6276,8 @@
       <c r="E177">
         <v>1</v>
       </c>
-      <c r="F177" t="b">
-        <v>0</v>
+      <c r="F177" t="s">
+        <v>781</v>
       </c>
       <c r="G177" t="s">
         <v>539</v>
@@ -6293,8 +6296,8 @@
       <c r="E178">
         <v>1</v>
       </c>
-      <c r="F178" t="b">
-        <v>0</v>
+      <c r="F178" t="s">
+        <v>781</v>
       </c>
       <c r="G178" t="s">
         <v>542</v>
@@ -6313,8 +6316,8 @@
       <c r="E179">
         <v>1</v>
       </c>
-      <c r="F179" t="b">
-        <v>0</v>
+      <c r="F179" t="s">
+        <v>781</v>
       </c>
       <c r="G179" t="s">
         <v>545</v>
@@ -6333,8 +6336,8 @@
       <c r="E180">
         <v>1</v>
       </c>
-      <c r="F180" t="b">
-        <v>0</v>
+      <c r="F180" t="s">
+        <v>781</v>
       </c>
       <c r="G180" t="s">
         <v>548</v>
@@ -6353,8 +6356,8 @@
       <c r="E181">
         <v>1</v>
       </c>
-      <c r="F181" t="b">
-        <v>0</v>
+      <c r="F181" t="s">
+        <v>781</v>
       </c>
       <c r="G181" t="s">
         <v>551</v>
@@ -6373,8 +6376,8 @@
       <c r="E182">
         <v>1</v>
       </c>
-      <c r="F182" t="b">
-        <v>0</v>
+      <c r="F182" t="s">
+        <v>781</v>
       </c>
       <c r="G182" t="s">
         <v>554</v>
@@ -6393,8 +6396,8 @@
       <c r="E183">
         <v>1</v>
       </c>
-      <c r="F183" t="b">
-        <v>0</v>
+      <c r="F183" t="s">
+        <v>781</v>
       </c>
       <c r="G183" t="s">
         <v>557</v>
@@ -6413,8 +6416,8 @@
       <c r="E184">
         <v>1</v>
       </c>
-      <c r="F184" t="b">
-        <v>0</v>
+      <c r="F184" t="s">
+        <v>781</v>
       </c>
       <c r="G184" t="s">
         <v>560</v>
@@ -6433,8 +6436,8 @@
       <c r="E185">
         <v>1</v>
       </c>
-      <c r="F185" t="b">
-        <v>0</v>
+      <c r="F185" t="s">
+        <v>781</v>
       </c>
       <c r="G185" t="s">
         <v>563</v>
@@ -6453,8 +6456,8 @@
       <c r="E186">
         <v>1</v>
       </c>
-      <c r="F186" t="b">
-        <v>0</v>
+      <c r="F186" t="s">
+        <v>781</v>
       </c>
       <c r="G186" t="s">
         <v>566</v>
@@ -6473,8 +6476,8 @@
       <c r="E187">
         <v>1</v>
       </c>
-      <c r="F187" t="b">
-        <v>0</v>
+      <c r="F187" t="s">
+        <v>781</v>
       </c>
       <c r="G187" t="s">
         <v>569</v>
@@ -6493,8 +6496,8 @@
       <c r="E188">
         <v>1</v>
       </c>
-      <c r="F188" t="b">
-        <v>0</v>
+      <c r="F188" t="s">
+        <v>781</v>
       </c>
       <c r="G188" t="s">
         <v>572</v>
@@ -6513,8 +6516,8 @@
       <c r="E189">
         <v>1</v>
       </c>
-      <c r="F189" t="b">
-        <v>0</v>
+      <c r="F189" t="s">
+        <v>781</v>
       </c>
       <c r="G189" t="s">
         <v>575</v>
@@ -6533,8 +6536,8 @@
       <c r="E190">
         <v>1</v>
       </c>
-      <c r="F190" t="b">
-        <v>0</v>
+      <c r="F190" t="s">
+        <v>781</v>
       </c>
       <c r="G190" t="s">
         <v>578</v>
@@ -6553,8 +6556,8 @@
       <c r="E191">
         <v>1</v>
       </c>
-      <c r="F191" t="b">
-        <v>0</v>
+      <c r="F191" t="s">
+        <v>781</v>
       </c>
       <c r="G191" t="s">
         <v>581</v>
@@ -6573,8 +6576,8 @@
       <c r="E192">
         <v>1</v>
       </c>
-      <c r="F192" t="b">
-        <v>0</v>
+      <c r="F192" t="s">
+        <v>781</v>
       </c>
       <c r="G192" t="s">
         <v>584</v>
@@ -6593,8 +6596,8 @@
       <c r="E193">
         <v>1</v>
       </c>
-      <c r="F193" t="b">
-        <v>0</v>
+      <c r="F193" t="s">
+        <v>781</v>
       </c>
       <c r="G193" t="s">
         <v>587</v>
@@ -6613,8 +6616,8 @@
       <c r="E194">
         <v>1</v>
       </c>
-      <c r="F194" t="b">
-        <v>0</v>
+      <c r="F194" t="s">
+        <v>781</v>
       </c>
       <c r="G194" t="s">
         <v>590</v>
@@ -6633,8 +6636,8 @@
       <c r="E195">
         <v>1</v>
       </c>
-      <c r="F195" t="b">
-        <v>0</v>
+      <c r="F195" t="s">
+        <v>781</v>
       </c>
       <c r="G195" t="s">
         <v>592</v>
@@ -6653,8 +6656,8 @@
       <c r="E196">
         <v>1</v>
       </c>
-      <c r="F196" t="b">
-        <v>0</v>
+      <c r="F196" t="s">
+        <v>781</v>
       </c>
       <c r="G196" t="s">
         <v>594</v>
@@ -6673,8 +6676,8 @@
       <c r="E197">
         <v>1</v>
       </c>
-      <c r="F197" t="b">
-        <v>0</v>
+      <c r="F197" t="s">
+        <v>781</v>
       </c>
       <c r="G197" t="s">
         <v>596</v>
@@ -6693,8 +6696,8 @@
       <c r="E198">
         <v>1</v>
       </c>
-      <c r="F198" t="b">
-        <v>0</v>
+      <c r="F198" t="s">
+        <v>781</v>
       </c>
       <c r="G198" t="s">
         <v>598</v>
@@ -6713,8 +6716,8 @@
       <c r="E199">
         <v>1</v>
       </c>
-      <c r="F199" t="b">
-        <v>0</v>
+      <c r="F199" t="s">
+        <v>781</v>
       </c>
       <c r="G199" t="s">
         <v>600</v>
@@ -6733,8 +6736,8 @@
       <c r="E200">
         <v>1</v>
       </c>
-      <c r="F200" t="b">
-        <v>0</v>
+      <c r="F200" t="s">
+        <v>781</v>
       </c>
       <c r="G200" t="s">
         <v>602</v>
@@ -6753,8 +6756,8 @@
       <c r="E201">
         <v>1</v>
       </c>
-      <c r="F201" t="b">
-        <v>0</v>
+      <c r="F201" t="s">
+        <v>781</v>
       </c>
       <c r="G201" t="s">
         <v>604</v>
@@ -6773,8 +6776,8 @@
       <c r="E202">
         <v>1</v>
       </c>
-      <c r="F202" t="b">
-        <v>0</v>
+      <c r="F202" t="s">
+        <v>781</v>
       </c>
       <c r="G202" t="s">
         <v>606</v>
@@ -6793,8 +6796,8 @@
       <c r="E203">
         <v>1</v>
       </c>
-      <c r="F203" t="b">
-        <v>0</v>
+      <c r="F203" t="s">
+        <v>781</v>
       </c>
       <c r="G203" t="s">
         <v>608</v>
@@ -6813,8 +6816,8 @@
       <c r="E204">
         <v>1</v>
       </c>
-      <c r="F204" t="b">
-        <v>0</v>
+      <c r="F204" t="s">
+        <v>781</v>
       </c>
       <c r="G204" t="s">
         <v>610</v>
@@ -6833,8 +6836,8 @@
       <c r="E205">
         <v>1</v>
       </c>
-      <c r="F205" t="b">
-        <v>0</v>
+      <c r="F205" t="s">
+        <v>781</v>
       </c>
       <c r="G205" t="s">
         <v>612</v>
@@ -6853,8 +6856,8 @@
       <c r="E206">
         <v>1</v>
       </c>
-      <c r="F206" t="b">
-        <v>0</v>
+      <c r="F206" t="s">
+        <v>781</v>
       </c>
       <c r="G206" t="s">
         <v>614</v>
@@ -6873,8 +6876,8 @@
       <c r="E207">
         <v>1</v>
       </c>
-      <c r="F207" t="b">
-        <v>0</v>
+      <c r="F207" t="s">
+        <v>781</v>
       </c>
       <c r="G207" t="s">
         <v>616</v>
@@ -6893,8 +6896,8 @@
       <c r="E208">
         <v>1</v>
       </c>
-      <c r="F208" t="b">
-        <v>0</v>
+      <c r="F208" t="s">
+        <v>781</v>
       </c>
       <c r="G208" t="s">
         <v>618</v>
@@ -6913,8 +6916,8 @@
       <c r="E209">
         <v>1</v>
       </c>
-      <c r="F209" t="b">
-        <v>0</v>
+      <c r="F209" t="s">
+        <v>781</v>
       </c>
       <c r="G209" t="s">
         <v>620</v>
@@ -6933,8 +6936,8 @@
       <c r="E210">
         <v>1</v>
       </c>
-      <c r="F210" t="b">
-        <v>0</v>
+      <c r="F210" t="s">
+        <v>781</v>
       </c>
       <c r="G210" t="s">
         <v>622</v>
@@ -6953,8 +6956,8 @@
       <c r="E211">
         <v>1</v>
       </c>
-      <c r="F211" t="b">
-        <v>0</v>
+      <c r="F211" t="s">
+        <v>781</v>
       </c>
       <c r="G211" t="s">
         <v>624</v>
@@ -6973,8 +6976,8 @@
       <c r="E212">
         <v>1</v>
       </c>
-      <c r="F212" t="b">
-        <v>0</v>
+      <c r="F212" t="s">
+        <v>781</v>
       </c>
       <c r="G212" t="s">
         <v>626</v>
@@ -6993,8 +6996,8 @@
       <c r="E213">
         <v>1</v>
       </c>
-      <c r="F213" t="b">
-        <v>0</v>
+      <c r="F213" t="s">
+        <v>781</v>
       </c>
       <c r="G213" t="s">
         <v>628</v>
@@ -7013,8 +7016,8 @@
       <c r="E214">
         <v>1</v>
       </c>
-      <c r="F214" t="b">
-        <v>0</v>
+      <c r="F214" t="s">
+        <v>781</v>
       </c>
       <c r="G214" t="s">
         <v>630</v>
@@ -7033,8 +7036,8 @@
       <c r="E215">
         <v>1</v>
       </c>
-      <c r="F215" t="b">
-        <v>0</v>
+      <c r="F215" t="s">
+        <v>781</v>
       </c>
       <c r="G215" t="s">
         <v>632</v>
@@ -7053,8 +7056,8 @@
       <c r="E216">
         <v>1</v>
       </c>
-      <c r="F216" t="b">
-        <v>0</v>
+      <c r="F216" t="s">
+        <v>781</v>
       </c>
       <c r="G216" t="s">
         <v>634</v>
@@ -7073,8 +7076,8 @@
       <c r="E217">
         <v>1</v>
       </c>
-      <c r="F217" t="b">
-        <v>0</v>
+      <c r="F217" t="s">
+        <v>781</v>
       </c>
       <c r="G217" t="s">
         <v>636</v>
@@ -7093,8 +7096,8 @@
       <c r="E218">
         <v>1</v>
       </c>
-      <c r="F218" t="b">
-        <v>0</v>
+      <c r="F218" t="s">
+        <v>781</v>
       </c>
       <c r="G218" t="s">
         <v>638</v>
@@ -7113,8 +7116,8 @@
       <c r="E219">
         <v>1</v>
       </c>
-      <c r="F219" t="b">
-        <v>0</v>
+      <c r="F219" t="s">
+        <v>781</v>
       </c>
       <c r="G219" t="s">
         <v>640</v>
@@ -7133,8 +7136,8 @@
       <c r="E220">
         <v>1</v>
       </c>
-      <c r="F220" t="b">
-        <v>0</v>
+      <c r="F220" t="s">
+        <v>781</v>
       </c>
       <c r="G220" t="s">
         <v>642</v>
@@ -7153,8 +7156,8 @@
       <c r="E221">
         <v>1</v>
       </c>
-      <c r="F221" t="b">
-        <v>0</v>
+      <c r="F221" t="s">
+        <v>781</v>
       </c>
       <c r="G221" t="s">
         <v>644</v>
@@ -7173,8 +7176,8 @@
       <c r="E222">
         <v>1</v>
       </c>
-      <c r="F222" t="b">
-        <v>0</v>
+      <c r="F222" t="s">
+        <v>781</v>
       </c>
       <c r="G222" t="s">
         <v>646</v>
@@ -7193,8 +7196,8 @@
       <c r="E223">
         <v>1</v>
       </c>
-      <c r="F223" t="b">
-        <v>0</v>
+      <c r="F223" t="s">
+        <v>781</v>
       </c>
       <c r="G223" t="s">
         <v>648</v>
@@ -7213,8 +7216,8 @@
       <c r="E224">
         <v>1</v>
       </c>
-      <c r="F224" t="b">
-        <v>0</v>
+      <c r="F224" t="s">
+        <v>781</v>
       </c>
       <c r="G224" t="s">
         <v>650</v>
@@ -7233,8 +7236,8 @@
       <c r="E225">
         <v>1</v>
       </c>
-      <c r="F225" t="b">
-        <v>0</v>
+      <c r="F225" t="s">
+        <v>781</v>
       </c>
       <c r="G225" t="s">
         <v>652</v>
@@ -7253,8 +7256,8 @@
       <c r="E226">
         <v>1</v>
       </c>
-      <c r="F226" t="b">
-        <v>0</v>
+      <c r="F226" t="s">
+        <v>781</v>
       </c>
       <c r="G226" t="s">
         <v>654</v>
@@ -7273,8 +7276,8 @@
       <c r="E227">
         <v>1</v>
       </c>
-      <c r="F227" t="b">
-        <v>0</v>
+      <c r="F227" t="s">
+        <v>781</v>
       </c>
       <c r="G227" t="s">
         <v>656</v>
@@ -7293,8 +7296,8 @@
       <c r="E228">
         <v>1</v>
       </c>
-      <c r="F228" t="b">
-        <v>0</v>
+      <c r="F228" t="s">
+        <v>781</v>
       </c>
       <c r="G228" t="s">
         <v>658</v>
@@ -7313,8 +7316,8 @@
       <c r="E229">
         <v>1</v>
       </c>
-      <c r="F229" t="b">
-        <v>0</v>
+      <c r="F229" t="s">
+        <v>781</v>
       </c>
       <c r="G229" t="s">
         <v>660</v>
@@ -7333,8 +7336,8 @@
       <c r="E230">
         <v>1</v>
       </c>
-      <c r="F230" t="b">
-        <v>0</v>
+      <c r="F230" t="s">
+        <v>781</v>
       </c>
       <c r="G230" t="s">
         <v>662</v>
@@ -7353,8 +7356,8 @@
       <c r="E231">
         <v>1</v>
       </c>
-      <c r="F231" t="b">
-        <v>0</v>
+      <c r="F231" t="s">
+        <v>781</v>
       </c>
       <c r="G231" t="s">
         <v>664</v>
@@ -7373,8 +7376,8 @@
       <c r="E232">
         <v>1</v>
       </c>
-      <c r="F232" t="b">
-        <v>0</v>
+      <c r="F232" t="s">
+        <v>781</v>
       </c>
       <c r="G232" t="s">
         <v>666</v>
@@ -7393,8 +7396,8 @@
       <c r="E233">
         <v>1</v>
       </c>
-      <c r="F233" t="b">
-        <v>0</v>
+      <c r="F233" t="s">
+        <v>781</v>
       </c>
       <c r="G233" t="s">
         <v>668</v>
@@ -7413,8 +7416,8 @@
       <c r="E234">
         <v>1</v>
       </c>
-      <c r="F234" t="b">
-        <v>0</v>
+      <c r="F234" t="s">
+        <v>781</v>
       </c>
       <c r="G234" t="s">
         <v>670</v>
@@ -7433,8 +7436,8 @@
       <c r="E235">
         <v>1</v>
       </c>
-      <c r="F235" t="b">
-        <v>0</v>
+      <c r="F235" t="s">
+        <v>781</v>
       </c>
       <c r="G235" t="s">
         <v>672</v>
@@ -7453,8 +7456,8 @@
       <c r="E236">
         <v>1</v>
       </c>
-      <c r="F236" t="b">
-        <v>0</v>
+      <c r="F236" t="s">
+        <v>781</v>
       </c>
       <c r="G236" t="s">
         <v>674</v>
@@ -7473,8 +7476,8 @@
       <c r="E237">
         <v>1</v>
       </c>
-      <c r="F237" t="b">
-        <v>0</v>
+      <c r="F237" t="s">
+        <v>781</v>
       </c>
       <c r="G237" t="s">
         <v>676</v>
@@ -7493,8 +7496,8 @@
       <c r="E238">
         <v>1</v>
       </c>
-      <c r="F238" t="b">
-        <v>0</v>
+      <c r="F238" t="s">
+        <v>781</v>
       </c>
       <c r="G238" t="s">
         <v>678</v>
@@ -7513,8 +7516,8 @@
       <c r="E239">
         <v>1</v>
       </c>
-      <c r="F239" t="b">
-        <v>0</v>
+      <c r="F239" t="s">
+        <v>781</v>
       </c>
       <c r="G239" t="s">
         <v>680</v>
@@ -7533,8 +7536,8 @@
       <c r="E240">
         <v>1</v>
       </c>
-      <c r="F240" t="b">
-        <v>0</v>
+      <c r="F240" t="s">
+        <v>781</v>
       </c>
       <c r="G240" t="s">
         <v>682</v>
@@ -7553,8 +7556,8 @@
       <c r="E241">
         <v>1</v>
       </c>
-      <c r="F241" t="b">
-        <v>0</v>
+      <c r="F241" t="s">
+        <v>781</v>
       </c>
       <c r="G241" t="s">
         <v>684</v>
@@ -7573,8 +7576,8 @@
       <c r="E242">
         <v>1</v>
       </c>
-      <c r="F242" t="b">
-        <v>0</v>
+      <c r="F242" t="s">
+        <v>781</v>
       </c>
       <c r="G242" t="s">
         <v>686</v>
@@ -7593,8 +7596,8 @@
       <c r="E243">
         <v>1</v>
       </c>
-      <c r="F243" t="b">
-        <v>0</v>
+      <c r="F243" t="s">
+        <v>781</v>
       </c>
       <c r="G243" t="s">
         <v>688</v>
@@ -7613,8 +7616,8 @@
       <c r="E244">
         <v>1</v>
       </c>
-      <c r="F244" t="b">
-        <v>0</v>
+      <c r="F244" t="s">
+        <v>781</v>
       </c>
       <c r="G244" t="s">
         <v>690</v>
@@ -7633,8 +7636,8 @@
       <c r="E245">
         <v>1</v>
       </c>
-      <c r="F245" t="b">
-        <v>0</v>
+      <c r="F245" t="s">
+        <v>781</v>
       </c>
       <c r="G245" t="s">
         <v>692</v>
@@ -7653,8 +7656,8 @@
       <c r="E246">
         <v>1</v>
       </c>
-      <c r="F246" t="b">
-        <v>0</v>
+      <c r="F246" t="s">
+        <v>781</v>
       </c>
       <c r="G246" t="s">
         <v>694</v>
@@ -7673,8 +7676,8 @@
       <c r="E247">
         <v>1</v>
       </c>
-      <c r="F247" t="b">
-        <v>0</v>
+      <c r="F247" t="s">
+        <v>781</v>
       </c>
       <c r="G247" t="s">
         <v>696</v>
@@ -7693,8 +7696,8 @@
       <c r="E248">
         <v>1</v>
       </c>
-      <c r="F248" t="b">
-        <v>0</v>
+      <c r="F248" t="s">
+        <v>781</v>
       </c>
       <c r="G248" t="s">
         <v>698</v>
@@ -7713,8 +7716,8 @@
       <c r="E249">
         <v>1</v>
       </c>
-      <c r="F249" t="b">
-        <v>0</v>
+      <c r="F249" t="s">
+        <v>781</v>
       </c>
       <c r="G249" t="s">
         <v>700</v>
@@ -7733,8 +7736,8 @@
       <c r="E250">
         <v>1</v>
       </c>
-      <c r="F250" t="b">
-        <v>0</v>
+      <c r="F250" t="s">
+        <v>781</v>
       </c>
       <c r="G250" t="s">
         <v>702</v>
@@ -7753,8 +7756,8 @@
       <c r="E251">
         <v>1</v>
       </c>
-      <c r="F251" t="b">
-        <v>0</v>
+      <c r="F251" t="s">
+        <v>781</v>
       </c>
       <c r="G251" t="s">
         <v>704</v>
@@ -7773,8 +7776,8 @@
       <c r="E252">
         <v>1</v>
       </c>
-      <c r="F252" t="b">
-        <v>0</v>
+      <c r="F252" t="s">
+        <v>781</v>
       </c>
       <c r="G252" t="s">
         <v>706</v>
@@ -7793,8 +7796,8 @@
       <c r="E253">
         <v>1</v>
       </c>
-      <c r="F253" t="b">
-        <v>0</v>
+      <c r="F253" t="s">
+        <v>781</v>
       </c>
       <c r="G253" t="s">
         <v>708</v>
@@ -7813,8 +7816,8 @@
       <c r="E254">
         <v>1</v>
       </c>
-      <c r="F254" t="b">
-        <v>0</v>
+      <c r="F254" t="s">
+        <v>781</v>
       </c>
       <c r="G254" t="s">
         <v>710</v>
@@ -7833,8 +7836,8 @@
       <c r="E255">
         <v>1</v>
       </c>
-      <c r="F255" t="b">
-        <v>0</v>
+      <c r="F255" t="s">
+        <v>781</v>
       </c>
       <c r="G255" t="s">
         <v>712</v>
@@ -7853,8 +7856,8 @@
       <c r="E256">
         <v>1</v>
       </c>
-      <c r="F256" t="b">
-        <v>0</v>
+      <c r="F256" t="s">
+        <v>781</v>
       </c>
       <c r="G256" t="s">
         <v>714</v>
@@ -7873,8 +7876,8 @@
       <c r="E257">
         <v>1</v>
       </c>
-      <c r="F257" t="b">
-        <v>0</v>
+      <c r="F257" t="s">
+        <v>781</v>
       </c>
       <c r="G257" t="s">
         <v>716</v>
@@ -7893,8 +7896,8 @@
       <c r="E258">
         <v>1</v>
       </c>
-      <c r="F258" t="b">
-        <v>0</v>
+      <c r="F258" t="s">
+        <v>781</v>
       </c>
       <c r="G258" t="s">
         <v>718</v>
@@ -7913,8 +7916,8 @@
       <c r="E259">
         <v>1</v>
       </c>
-      <c r="F259" t="b">
-        <v>0</v>
+      <c r="F259" t="s">
+        <v>781</v>
       </c>
       <c r="G259" t="s">
         <v>720</v>
@@ -7933,8 +7936,8 @@
       <c r="E260">
         <v>1</v>
       </c>
-      <c r="F260" t="b">
-        <v>0</v>
+      <c r="F260" t="s">
+        <v>781</v>
       </c>
       <c r="G260" t="s">
         <v>722</v>
@@ -7953,8 +7956,8 @@
       <c r="E261">
         <v>1</v>
       </c>
-      <c r="F261" t="b">
-        <v>0</v>
+      <c r="F261" t="s">
+        <v>781</v>
       </c>
       <c r="G261" t="s">
         <v>724</v>
@@ -7973,8 +7976,8 @@
       <c r="E262">
         <v>1</v>
       </c>
-      <c r="F262" t="b">
-        <v>0</v>
+      <c r="F262" t="s">
+        <v>781</v>
       </c>
       <c r="G262" t="s">
         <v>726</v>
@@ -7993,8 +7996,8 @@
       <c r="E263">
         <v>1</v>
       </c>
-      <c r="F263" t="b">
-        <v>0</v>
+      <c r="F263" t="s">
+        <v>781</v>
       </c>
       <c r="G263" t="s">
         <v>728</v>
@@ -8013,8 +8016,8 @@
       <c r="E264">
         <v>1</v>
       </c>
-      <c r="F264" t="b">
-        <v>0</v>
+      <c r="F264" t="s">
+        <v>781</v>
       </c>
       <c r="G264" t="s">
         <v>730</v>
@@ -8033,8 +8036,8 @@
       <c r="E265">
         <v>1</v>
       </c>
-      <c r="F265" t="b">
-        <v>0</v>
+      <c r="F265" t="s">
+        <v>781</v>
       </c>
       <c r="G265" t="s">
         <v>732</v>
@@ -8053,8 +8056,8 @@
       <c r="E266">
         <v>1</v>
       </c>
-      <c r="F266" t="b">
-        <v>0</v>
+      <c r="F266" t="s">
+        <v>781</v>
       </c>
       <c r="G266" t="s">
         <v>734</v>
@@ -8073,8 +8076,8 @@
       <c r="E267">
         <v>1</v>
       </c>
-      <c r="F267" t="b">
-        <v>0</v>
+      <c r="F267" t="s">
+        <v>781</v>
       </c>
       <c r="G267" t="s">
         <v>736</v>
@@ -8093,8 +8096,8 @@
       <c r="E268">
         <v>1</v>
       </c>
-      <c r="F268" t="b">
-        <v>0</v>
+      <c r="F268" t="s">
+        <v>781</v>
       </c>
       <c r="G268" t="s">
         <v>738</v>
@@ -8113,8 +8116,8 @@
       <c r="E269">
         <v>1</v>
       </c>
-      <c r="F269" t="b">
-        <v>0</v>
+      <c r="F269" t="s">
+        <v>781</v>
       </c>
       <c r="G269" t="s">
         <v>740</v>
@@ -8133,8 +8136,8 @@
       <c r="E270">
         <v>1</v>
       </c>
-      <c r="F270" t="b">
-        <v>0</v>
+      <c r="F270" t="s">
+        <v>781</v>
       </c>
       <c r="G270" t="s">
         <v>742</v>
@@ -8153,8 +8156,8 @@
       <c r="E271">
         <v>1</v>
       </c>
-      <c r="F271" t="b">
-        <v>0</v>
+      <c r="F271" t="s">
+        <v>781</v>
       </c>
       <c r="G271" t="s">
         <v>744</v>
@@ -8173,8 +8176,8 @@
       <c r="E272">
         <v>1</v>
       </c>
-      <c r="F272" t="b">
-        <v>0</v>
+      <c r="F272" t="s">
+        <v>781</v>
       </c>
       <c r="G272" t="s">
         <v>746</v>
@@ -8193,8 +8196,8 @@
       <c r="E273">
         <v>1</v>
       </c>
-      <c r="F273" t="b">
-        <v>0</v>
+      <c r="F273" t="s">
+        <v>781</v>
       </c>
       <c r="G273" t="s">
         <v>748</v>
@@ -8213,8 +8216,8 @@
       <c r="E274">
         <v>1</v>
       </c>
-      <c r="F274" t="b">
-        <v>0</v>
+      <c r="F274" t="s">
+        <v>781</v>
       </c>
       <c r="G274" t="s">
         <v>750</v>
@@ -8233,8 +8236,8 @@
       <c r="E275">
         <v>1</v>
       </c>
-      <c r="F275" t="b">
-        <v>0</v>
+      <c r="F275" t="s">
+        <v>781</v>
       </c>
       <c r="G275" t="s">
         <v>752</v>
@@ -8253,8 +8256,8 @@
       <c r="E276">
         <v>1</v>
       </c>
-      <c r="F276" t="b">
-        <v>0</v>
+      <c r="F276" t="s">
+        <v>781</v>
       </c>
       <c r="G276" t="s">
         <v>754</v>
@@ -8273,8 +8276,8 @@
       <c r="E277">
         <v>1</v>
       </c>
-      <c r="F277" t="b">
-        <v>0</v>
+      <c r="F277" t="s">
+        <v>781</v>
       </c>
       <c r="G277" t="s">
         <v>756</v>
@@ -8293,8 +8296,8 @@
       <c r="E278">
         <v>1</v>
       </c>
-      <c r="F278" t="b">
-        <v>0</v>
+      <c r="F278" t="s">
+        <v>781</v>
       </c>
       <c r="G278" t="s">
         <v>758</v>
@@ -8313,8 +8316,8 @@
       <c r="E279">
         <v>1</v>
       </c>
-      <c r="F279" t="b">
-        <v>0</v>
+      <c r="F279" t="s">
+        <v>781</v>
       </c>
       <c r="G279" t="s">
         <v>760</v>
@@ -8333,8 +8336,8 @@
       <c r="E280">
         <v>1</v>
       </c>
-      <c r="F280" t="b">
-        <v>0</v>
+      <c r="F280" t="s">
+        <v>781</v>
       </c>
       <c r="G280" t="s">
         <v>762</v>
@@ -8353,8 +8356,8 @@
       <c r="E281">
         <v>1</v>
       </c>
-      <c r="F281" t="b">
-        <v>0</v>
+      <c r="F281" t="s">
+        <v>781</v>
       </c>
       <c r="G281" t="s">
         <v>764</v>
@@ -8373,8 +8376,8 @@
       <c r="E282">
         <v>1</v>
       </c>
-      <c r="F282" t="b">
-        <v>0</v>
+      <c r="F282" t="s">
+        <v>781</v>
       </c>
       <c r="G282" t="s">
         <v>766</v>
@@ -8393,8 +8396,8 @@
       <c r="E283">
         <v>1</v>
       </c>
-      <c r="F283" t="b">
-        <v>0</v>
+      <c r="F283" t="s">
+        <v>781</v>
       </c>
       <c r="G283" t="s">
         <v>768</v>
@@ -8413,8 +8416,8 @@
       <c r="E284">
         <v>1</v>
       </c>
-      <c r="F284" t="b">
-        <v>0</v>
+      <c r="F284" t="s">
+        <v>781</v>
       </c>
       <c r="G284" t="s">
         <v>770</v>
@@ -8433,8 +8436,8 @@
       <c r="E285">
         <v>1</v>
       </c>
-      <c r="F285" t="b">
-        <v>0</v>
+      <c r="F285" t="s">
+        <v>781</v>
       </c>
       <c r="G285" t="s">
         <v>772</v>
@@ -8453,8 +8456,8 @@
       <c r="E286">
         <v>1</v>
       </c>
-      <c r="F286" t="b">
-        <v>0</v>
+      <c r="F286" t="s">
+        <v>781</v>
       </c>
       <c r="G286" t="s">
         <v>774</v>
@@ -8473,8 +8476,8 @@
       <c r="E287">
         <v>1</v>
       </c>
-      <c r="F287" t="b">
-        <v>0</v>
+      <c r="F287" t="s">
+        <v>781</v>
       </c>
       <c r="G287" t="s">
         <v>776</v>
@@ -8493,8 +8496,8 @@
       <c r="E288">
         <v>1</v>
       </c>
-      <c r="F288" t="b">
-        <v>0</v>
+      <c r="F288" t="s">
+        <v>781</v>
       </c>
       <c r="G288" t="s">
         <v>778</v>
@@ -8513,8 +8516,8 @@
       <c r="E289">
         <v>1</v>
       </c>
-      <c r="F289" t="b">
-        <v>0</v>
+      <c r="F289" t="s">
+        <v>781</v>
       </c>
       <c r="G289" t="s">
         <v>780</v>
